--- a/VT_REG1_IND_V08.xlsx
+++ b/VT_REG1_IND_V08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615" tabRatio="901" activeTab="3"/>
+    <workbookView windowWidth="14004" windowHeight="5580" tabRatio="901" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -1389,7 +1389,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="179">
   <si>
     <t>Default Units</t>
   </si>
@@ -2905,7 +2905,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2959,7 +2959,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="50" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4987,7 +4986,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="24:27">
-      <c r="X1" s="118" t="s">
+      <c r="X1" s="117" t="s">
         <v>0</v>
       </c>
       <c r="Y1" s="9" t="s">
@@ -5001,66 +5000,66 @@
       </c>
     </row>
     <row r="2" ht="15.6" spans="3:45">
-      <c r="C2" s="88"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="89" t="s">
+      <c r="O2" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="89" t="s">
+      <c r="P2" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="89" t="s">
+      <c r="Q2" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="89" t="s">
+      <c r="R2" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="89" t="s">
+      <c r="S2" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="89" t="s">
+      <c r="T2" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="89" t="s">
+      <c r="U2" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="89" t="s">
+      <c r="V2" s="88" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="25"/>
-      <c r="Y2" s="133" t="s">
+      <c r="Y2" s="132" t="s">
         <v>23</v>
       </c>
       <c r="Z2" s="18" t="s">
@@ -5069,1390 +5068,1390 @@
       <c r="AA2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="89" t="s">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="89" t="s">
+      <c r="AF2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="89" t="s">
+      <c r="AG2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="89" t="s">
+      <c r="AH2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="89" t="s">
+      <c r="AI2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="89" t="s">
+      <c r="AJ2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="89" t="s">
+      <c r="AK2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="89" t="s">
+      <c r="AL2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="89" t="s">
+      <c r="AM2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AN2" s="89" t="s">
+      <c r="AN2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="89" t="s">
+      <c r="AO2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="89" t="s">
+      <c r="AP2" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="AQ2" s="89" t="s">
+      <c r="AQ2" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="89" t="s">
+      <c r="AR2" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="89" t="s">
+      <c r="AS2" s="88" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" ht="39.6" spans="3:45">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="L3" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="91" t="s">
+      <c r="N3" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="91" t="s">
+      <c r="P3" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="91" t="s">
+      <c r="Q3" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="91" t="s">
+      <c r="R3" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="91" t="s">
+      <c r="S3" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="91" t="s">
+      <c r="T3" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="91" t="s">
+      <c r="U3" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="91" t="s">
+      <c r="V3" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="134" t="s">
+      <c r="AC3" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="91" t="s">
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="91" t="s">
+      <c r="AF3" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="91" t="s">
+      <c r="AG3" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="AH3" s="91" t="s">
+      <c r="AH3" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="AI3" s="91" t="s">
+      <c r="AI3" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="91" t="s">
+      <c r="AJ3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="91" t="s">
+      <c r="AK3" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="91" t="s">
+      <c r="AL3" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="AM3" s="91" t="s">
+      <c r="AM3" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="AN3" s="91" t="s">
+      <c r="AN3" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AO3" s="91" t="s">
+      <c r="AO3" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="AP3" s="91" t="s">
+      <c r="AP3" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AQ3" s="91" t="s">
+      <c r="AQ3" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" s="91" t="s">
+      <c r="AR3" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" s="91" t="s">
+      <c r="AS3" s="90" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:45">
-      <c r="B4" s="92"/>
-      <c r="C4" s="93" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="125"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="135" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="124"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="149">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="148">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="87"/>
+      <c r="AS4" s="87"/>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="1"/>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="96">
         <f>'[2]EB1'!D16</f>
         <v>231.76075</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="96">
         <f>'[2]EB1'!E16</f>
         <v>2063.9172</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="96">
         <f>'[2]EB1'!F16</f>
         <v>0</v>
       </c>
-      <c r="G5" s="97">
+      <c r="G5" s="96">
         <f>'[2]EB1'!G16</f>
         <v>862.053</v>
       </c>
-      <c r="H5" s="97">
+      <c r="H5" s="96">
         <f>'[2]EB1'!H16</f>
         <v>72.9495</v>
       </c>
-      <c r="I5" s="97">
+      <c r="I5" s="96">
         <f>'[2]EB1'!I16</f>
         <v>190.176</v>
       </c>
-      <c r="J5" s="97">
+      <c r="J5" s="96">
         <f>'[2]EB1'!J16</f>
         <v>3.168</v>
       </c>
-      <c r="K5" s="97">
+      <c r="K5" s="96">
         <f>'[2]EB1'!K16</f>
         <v>0</v>
       </c>
-      <c r="L5" s="97">
+      <c r="L5" s="96">
         <f>'[2]EB1'!L16</f>
         <v>15.38</v>
       </c>
-      <c r="M5" s="97">
+      <c r="M5" s="96">
         <f>'[2]EB1'!M16</f>
         <v>0.92</v>
       </c>
-      <c r="N5" s="124">
+      <c r="N5" s="123">
         <f>'[2]EB1'!N16</f>
         <v>0</v>
       </c>
-      <c r="O5" s="97">
+      <c r="O5" s="96">
         <f>'[2]EB1'!O16</f>
         <v>895.44525</v>
       </c>
-      <c r="P5" s="97">
+      <c r="P5" s="96">
         <f>'[2]EB1'!P16</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="97">
+      <c r="Q5" s="96">
         <f>'[2]EB1'!Q16</f>
         <v>0</v>
       </c>
-      <c r="R5" s="97">
+      <c r="R5" s="96">
         <f>'[2]EB1'!R16</f>
         <v>50</v>
       </c>
-      <c r="S5" s="97">
+      <c r="S5" s="96">
         <f>'[2]EB1'!S16</f>
         <v>0</v>
       </c>
-      <c r="T5" s="97">
+      <c r="T5" s="96">
         <f>'[2]EB1'!T16</f>
         <v>432.7425</v>
       </c>
-      <c r="U5" s="97">
+      <c r="U5" s="96">
         <f>'[2]EB1'!U16</f>
         <v>1435.871</v>
       </c>
-      <c r="V5" s="126">
+      <c r="V5" s="125">
         <f>SUM(D5:U5)</f>
         <v>6254.3832</v>
       </c>
-      <c r="AC5" s="95" t="s">
+      <c r="AC5" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="136" t="s">
+      <c r="AD5" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="137">
+      <c r="AE5" s="136">
         <v>1</v>
       </c>
-      <c r="AF5" s="138">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="138">
+      <c r="AF5" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="137">
         <v>0.3</v>
       </c>
-      <c r="AH5" s="138">
+      <c r="AH5" s="137">
         <v>0.3</v>
       </c>
-      <c r="AI5" s="138">
+      <c r="AI5" s="137">
         <v>0.3</v>
       </c>
-      <c r="AJ5" s="138">
+      <c r="AJ5" s="137">
         <v>0.3</v>
       </c>
-      <c r="AK5" s="138">
+      <c r="AK5" s="137">
         <v>0.3</v>
       </c>
-      <c r="AL5" s="138">
+      <c r="AL5" s="137">
         <v>0.3</v>
       </c>
-      <c r="AM5" s="138">
+      <c r="AM5" s="137">
         <v>0.3</v>
       </c>
-      <c r="AN5" s="138">
+      <c r="AN5" s="137">
         <v>0.3</v>
       </c>
-      <c r="AO5" s="138">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="138">
+      <c r="AO5" s="137">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="137">
         <v>1</v>
       </c>
-      <c r="AQ5" s="138">
+      <c r="AQ5" s="137">
         <v>0.5</v>
       </c>
-      <c r="AR5" s="138">
+      <c r="AR5" s="137">
         <v>0.5</v>
       </c>
-      <c r="AS5" s="150">
+      <c r="AS5" s="149">
         <v>0.44</v>
       </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="1"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="96">
         <f>'[2]EB1'!D17</f>
         <v>37.00125</v>
       </c>
-      <c r="E6" s="97">
+      <c r="E6" s="96">
         <f>'[2]EB1'!E17</f>
         <v>700.692</v>
       </c>
-      <c r="F6" s="97">
+      <c r="F6" s="96">
         <f>'[2]EB1'!F17</f>
         <v>0</v>
       </c>
-      <c r="G6" s="97">
+      <c r="G6" s="96">
         <f>'[2]EB1'!G17</f>
         <v>368.844</v>
       </c>
-      <c r="H6" s="97">
+      <c r="H6" s="96">
         <f>'[2]EB1'!H17</f>
         <v>1.677</v>
       </c>
-      <c r="I6" s="97">
+      <c r="I6" s="96">
         <f>'[2]EB1'!I17</f>
         <v>31.602</v>
       </c>
-      <c r="J6" s="97">
+      <c r="J6" s="96">
         <f>'[2]EB1'!J17</f>
         <v>5.72</v>
       </c>
-      <c r="K6" s="97">
+      <c r="K6" s="96">
         <f>'[2]EB1'!K17</f>
         <v>0</v>
       </c>
-      <c r="L6" s="97">
+      <c r="L6" s="96">
         <f>'[2]EB1'!L17</f>
         <v>19.32</v>
       </c>
-      <c r="M6" s="97">
+      <c r="M6" s="96">
         <f>'[2]EB1'!M17</f>
         <v>0.242</v>
       </c>
-      <c r="N6" s="124">
+      <c r="N6" s="123">
         <f>'[2]EB1'!N17</f>
         <v>0</v>
       </c>
-      <c r="O6" s="97">
+      <c r="O6" s="96">
         <f>'[2]EB1'!O17</f>
         <v>39</v>
       </c>
-      <c r="P6" s="97">
+      <c r="P6" s="96">
         <f>'[2]EB1'!P17</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="97">
+      <c r="Q6" s="96">
         <f>'[2]EB1'!Q17</f>
         <v>0</v>
       </c>
-      <c r="R6" s="97">
+      <c r="R6" s="96">
         <f>'[2]EB1'!R17</f>
         <v>7.5</v>
       </c>
-      <c r="S6" s="97">
+      <c r="S6" s="96">
         <f>'[2]EB1'!S17</f>
         <v>0.6085</v>
       </c>
-      <c r="T6" s="97">
+      <c r="T6" s="96">
         <f>'[2]EB1'!T17</f>
         <v>127.323</v>
       </c>
-      <c r="U6" s="97">
+      <c r="U6" s="96">
         <f>'[2]EB1'!U17</f>
         <v>1263.6955</v>
       </c>
-      <c r="V6" s="126">
+      <c r="V6" s="125">
         <f t="shared" ref="V6:V12" si="0">SUM(D6:U6)</f>
         <v>2603.22525</v>
       </c>
-      <c r="AC6" s="95" t="s">
+      <c r="AC6" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="AD6" s="139" t="s">
+      <c r="AD6" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="AE6" s="140">
+      <c r="AE6" s="139">
         <v>1</v>
       </c>
-      <c r="AF6" s="141">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="141">
+      <c r="AF6" s="140">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="140">
         <v>0.3</v>
       </c>
-      <c r="AH6" s="141">
+      <c r="AH6" s="140">
         <v>0.3</v>
       </c>
-      <c r="AI6" s="141">
+      <c r="AI6" s="140">
         <v>0.3</v>
       </c>
-      <c r="AJ6" s="141">
+      <c r="AJ6" s="140">
         <v>0.3</v>
       </c>
-      <c r="AK6" s="141">
+      <c r="AK6" s="140">
         <v>0.3</v>
       </c>
-      <c r="AL6" s="141">
+      <c r="AL6" s="140">
         <v>0.3</v>
       </c>
-      <c r="AM6" s="141">
+      <c r="AM6" s="140">
         <v>0.3</v>
       </c>
-      <c r="AN6" s="141">
+      <c r="AN6" s="140">
         <v>0.3</v>
       </c>
-      <c r="AO6" s="141">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="141">
+      <c r="AO6" s="140">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="140">
         <v>1</v>
       </c>
-      <c r="AQ6" s="141">
+      <c r="AQ6" s="140">
         <v>0.5</v>
       </c>
-      <c r="AR6" s="141">
+      <c r="AR6" s="140">
         <v>0.5</v>
       </c>
-      <c r="AS6" s="151">
+      <c r="AS6" s="150">
         <v>0.44</v>
       </c>
     </row>
     <row r="7" ht="14.4" spans="1:45">
       <c r="A7" s="1"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="98">
         <f>'[2]EB1'!D18</f>
         <v>1233.0409</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="98">
         <f>'[2]EB1'!E18</f>
         <v>1774.8644</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="98">
         <f>'[2]EB1'!F18</f>
         <v>0</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="98">
         <f>'[2]EB1'!G18</f>
         <v>298.68</v>
       </c>
-      <c r="H7" s="99">
+      <c r="H7" s="98">
         <f>'[2]EB1'!H18</f>
         <v>36.3565</v>
       </c>
-      <c r="I7" s="99">
+      <c r="I7" s="98">
         <f>'[2]EB1'!I18</f>
         <v>142.9715</v>
       </c>
-      <c r="J7" s="99">
+      <c r="J7" s="98">
         <f>'[2]EB1'!J18</f>
         <v>7.766</v>
       </c>
-      <c r="K7" s="99">
+      <c r="K7" s="98">
         <f>'[2]EB1'!K18</f>
         <v>44.066</v>
       </c>
-      <c r="L7" s="99">
+      <c r="L7" s="98">
         <f>'[2]EB1'!L18</f>
         <v>286.0505</v>
       </c>
-      <c r="M7" s="99">
+      <c r="M7" s="98">
         <f>'[2]EB1'!M18</f>
         <v>191.573</v>
       </c>
-      <c r="N7" s="99">
+      <c r="N7" s="98">
         <f>'[2]EB1'!N18</f>
         <v>0</v>
       </c>
-      <c r="O7" s="99">
+      <c r="O7" s="98">
         <f>'[2]EB1'!O18</f>
         <v>541.25325</v>
       </c>
-      <c r="P7" s="99">
+      <c r="P7" s="98">
         <f>'[2]EB1'!P18</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="99">
+      <c r="Q7" s="98">
         <f>'[2]EB1'!Q18</f>
         <v>0</v>
       </c>
-      <c r="R7" s="99">
+      <c r="R7" s="98">
         <f>'[2]EB1'!R18</f>
         <v>0</v>
       </c>
-      <c r="S7" s="97">
+      <c r="S7" s="96">
         <f>'[2]EB1'!S18</f>
         <v>58.596</v>
       </c>
-      <c r="T7" s="97">
+      <c r="T7" s="96">
         <f>'[2]EB1'!T18</f>
         <v>316.7915</v>
       </c>
-      <c r="U7" s="99">
+      <c r="U7" s="98">
         <f>'[2]EB1'!U18</f>
         <v>2044.222</v>
       </c>
-      <c r="V7" s="126">
+      <c r="V7" s="125">
         <f t="shared" si="0"/>
         <v>6976.23155</v>
       </c>
       <c r="X7" s="32"/>
-      <c r="AC7" s="95" t="s">
+      <c r="AC7" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="AD7" s="139" t="s">
+      <c r="AD7" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="AE7" s="142">
+      <c r="AE7" s="141">
         <v>1</v>
       </c>
-      <c r="AF7" s="143">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="143">
+      <c r="AF7" s="142">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="142">
         <v>0.3</v>
       </c>
-      <c r="AH7" s="143">
+      <c r="AH7" s="142">
         <v>0.3</v>
       </c>
-      <c r="AI7" s="143">
+      <c r="AI7" s="142">
         <v>0.3</v>
       </c>
-      <c r="AJ7" s="143">
+      <c r="AJ7" s="142">
         <v>0.3</v>
       </c>
-      <c r="AK7" s="143">
+      <c r="AK7" s="142">
         <v>0.3</v>
       </c>
-      <c r="AL7" s="143">
+      <c r="AL7" s="142">
         <v>0.3</v>
       </c>
-      <c r="AM7" s="143">
+      <c r="AM7" s="142">
         <v>0.3</v>
       </c>
-      <c r="AN7" s="143">
+      <c r="AN7" s="142">
         <v>0.3</v>
       </c>
-      <c r="AO7" s="141">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="143">
+      <c r="AO7" s="140">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="142">
         <v>1</v>
       </c>
-      <c r="AQ7" s="141">
+      <c r="AQ7" s="140">
         <v>0.5</v>
       </c>
-      <c r="AR7" s="141">
+      <c r="AR7" s="140">
         <v>0.5</v>
       </c>
-      <c r="AS7" s="152">
+      <c r="AS7" s="151">
         <v>0.44</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="1"/>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="96">
         <f>'[2]EB1'!D19</f>
         <v>28.665</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="96">
         <f>'[2]EB1'!E19</f>
         <v>80.4824</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="96">
         <f>'[2]EB1'!F19</f>
         <v>0</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="96">
         <f>'[2]EB1'!G19</f>
         <v>366.588</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="96">
         <f>'[2]EB1'!H19</f>
         <v>0.473</v>
       </c>
-      <c r="I8" s="97">
+      <c r="I8" s="96">
         <f>'[2]EB1'!I19</f>
         <v>16.169</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="96">
         <f>'[2]EB1'!J19</f>
         <v>1.716</v>
       </c>
-      <c r="K8" s="97">
+      <c r="K8" s="96">
         <f>'[2]EB1'!K19</f>
         <v>0</v>
       </c>
-      <c r="L8" s="97">
+      <c r="L8" s="96">
         <f>'[2]EB1'!L19</f>
         <v>13.74</v>
       </c>
-      <c r="M8" s="97">
+      <c r="M8" s="96">
         <f>'[2]EB1'!M19</f>
         <v>0</v>
       </c>
-      <c r="N8" s="124">
+      <c r="N8" s="123">
         <f>'[2]EB1'!N19</f>
         <v>0</v>
       </c>
-      <c r="O8" s="97">
+      <c r="O8" s="96">
         <f>'[2]EB1'!O19</f>
         <v>47.3145</v>
       </c>
-      <c r="P8" s="97">
+      <c r="P8" s="96">
         <f>'[2]EB1'!P19</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="97">
+      <c r="Q8" s="96">
         <f>'[2]EB1'!Q19</f>
         <v>0</v>
       </c>
-      <c r="R8" s="97">
+      <c r="R8" s="96">
         <f>'[2]EB1'!R19</f>
         <v>0</v>
       </c>
-      <c r="S8" s="97">
+      <c r="S8" s="96">
         <f>'[2]EB1'!S19</f>
         <v>0.0005</v>
       </c>
-      <c r="T8" s="97">
+      <c r="T8" s="96">
         <f>'[2]EB1'!T19</f>
         <v>7.787</v>
       </c>
-      <c r="U8" s="97">
+      <c r="U8" s="96">
         <f>'[2]EB1'!U19</f>
         <v>9.693</v>
       </c>
-      <c r="V8" s="126">
+      <c r="V8" s="125">
         <f t="shared" si="0"/>
         <v>572.6284</v>
       </c>
-      <c r="AC8" s="95" t="s">
+      <c r="AC8" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AD8" s="139" t="s">
+      <c r="AD8" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="AE8" s="140">
+      <c r="AE8" s="139">
         <v>1</v>
       </c>
-      <c r="AF8" s="141">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="141">
+      <c r="AF8" s="140">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="140">
         <v>0.3</v>
       </c>
-      <c r="AH8" s="141">
+      <c r="AH8" s="140">
         <v>0.3</v>
       </c>
-      <c r="AI8" s="141">
+      <c r="AI8" s="140">
         <v>0.3</v>
       </c>
-      <c r="AJ8" s="141">
+      <c r="AJ8" s="140">
         <v>0.3</v>
       </c>
-      <c r="AK8" s="141">
+      <c r="AK8" s="140">
         <v>0.3</v>
       </c>
-      <c r="AL8" s="141">
+      <c r="AL8" s="140">
         <v>0.3</v>
       </c>
-      <c r="AM8" s="141">
+      <c r="AM8" s="140">
         <v>0.3</v>
       </c>
-      <c r="AN8" s="141">
+      <c r="AN8" s="140">
         <v>0.3</v>
       </c>
-      <c r="AO8" s="141">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="141">
+      <c r="AO8" s="140">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="140">
         <v>1</v>
       </c>
-      <c r="AQ8" s="141">
+      <c r="AQ8" s="140">
         <v>0.5</v>
       </c>
-      <c r="AR8" s="141">
+      <c r="AR8" s="140">
         <v>0.5</v>
       </c>
-      <c r="AS8" s="151">
+      <c r="AS8" s="150">
         <v>0.44</v>
       </c>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="1"/>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="96">
         <f>'[2]EB1'!D20</f>
         <v>0.3614</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="96">
         <f>'[2]EB1'!E20</f>
         <v>8.4996</v>
       </c>
-      <c r="F9" s="97">
+      <c r="F9" s="96">
         <f>'[2]EB1'!F20</f>
         <v>0</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="96">
         <f>'[2]EB1'!G20</f>
         <v>3856.2855</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="96">
         <f>'[2]EB1'!H20</f>
         <v>1047.652</v>
       </c>
-      <c r="I9" s="97">
+      <c r="I9" s="96">
         <f>'[2]EB1'!I20</f>
         <v>94.231</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="96">
         <f>'[2]EB1'!J20</f>
         <v>2394.216</v>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="96">
         <f>'[2]EB1'!K20</f>
         <v>0</v>
       </c>
-      <c r="L9" s="97">
+      <c r="L9" s="96">
         <f>'[2]EB1'!L20</f>
         <v>33.24</v>
       </c>
-      <c r="M9" s="97">
+      <c r="M9" s="96">
         <f>'[2]EB1'!M20</f>
         <v>0</v>
       </c>
-      <c r="N9" s="124">
+      <c r="N9" s="123">
         <f>'[2]EB1'!N20</f>
         <v>0</v>
       </c>
-      <c r="O9" s="97">
+      <c r="O9" s="96">
         <f>'[2]EB1'!O20</f>
         <v>120.75</v>
       </c>
-      <c r="P9" s="97">
+      <c r="P9" s="96">
         <f>'[2]EB1'!P20</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="97">
+      <c r="Q9" s="96">
         <f>'[2]EB1'!Q20</f>
         <v>0</v>
       </c>
-      <c r="R9" s="97">
+      <c r="R9" s="96">
         <f>'[2]EB1'!R20</f>
         <v>0</v>
       </c>
-      <c r="S9" s="97">
+      <c r="S9" s="96">
         <f>'[2]EB1'!S20</f>
         <v>0</v>
       </c>
-      <c r="T9" s="97">
+      <c r="T9" s="96">
         <f>'[2]EB1'!T20</f>
         <v>0</v>
       </c>
-      <c r="U9" s="97">
+      <c r="U9" s="96">
         <f>'[2]EB1'!U20</f>
         <v>132.986</v>
       </c>
-      <c r="V9" s="126">
+      <c r="V9" s="125">
         <f t="shared" si="0"/>
         <v>7688.2215</v>
       </c>
-      <c r="AC9" s="95" t="s">
+      <c r="AC9" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="AD9" s="139" t="s">
+      <c r="AD9" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="AE9" s="140">
+      <c r="AE9" s="139">
         <v>1</v>
       </c>
-      <c r="AF9" s="141">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="141">
+      <c r="AF9" s="140">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="140">
         <v>0.3</v>
       </c>
-      <c r="AH9" s="141">
+      <c r="AH9" s="140">
         <v>0.3</v>
       </c>
-      <c r="AI9" s="141">
+      <c r="AI9" s="140">
         <v>0.3</v>
       </c>
-      <c r="AJ9" s="141">
+      <c r="AJ9" s="140">
         <v>0.3</v>
       </c>
-      <c r="AK9" s="141">
+      <c r="AK9" s="140">
         <v>0.3</v>
       </c>
-      <c r="AL9" s="141">
+      <c r="AL9" s="140">
         <v>0.3</v>
       </c>
-      <c r="AM9" s="141">
+      <c r="AM9" s="140">
         <v>0.3</v>
       </c>
-      <c r="AN9" s="141">
+      <c r="AN9" s="140">
         <v>0.3</v>
       </c>
-      <c r="AO9" s="141">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="141">
+      <c r="AO9" s="140">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="140">
         <v>1</v>
       </c>
-      <c r="AQ9" s="141">
+      <c r="AQ9" s="140">
         <v>0.5</v>
       </c>
-      <c r="AR9" s="141">
+      <c r="AR9" s="140">
         <v>0.5</v>
       </c>
-      <c r="AS9" s="151">
+      <c r="AS9" s="150">
         <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="1"/>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="100">
         <f>'[2]EB1'!D21</f>
         <v>773.000149999999</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="100">
         <f>'[2]EB1'!E21</f>
         <v>0</v>
       </c>
-      <c r="F10" s="101">
+      <c r="F10" s="100">
         <f>'[2]EB1'!F21</f>
         <v>0</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="100">
         <f>'[2]EB1'!G21</f>
         <v>0</v>
       </c>
-      <c r="H10" s="101">
+      <c r="H10" s="100">
         <f>'[2]EB1'!H21</f>
         <v>0</v>
       </c>
-      <c r="I10" s="101">
+      <c r="I10" s="100">
         <f>'[2]EB1'!I21</f>
         <v>0</v>
       </c>
-      <c r="J10" s="101">
+      <c r="J10" s="100">
         <f>'[2]EB1'!J21</f>
         <v>0</v>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="100">
         <f>'[2]EB1'!K21</f>
         <v>0</v>
       </c>
-      <c r="L10" s="101">
+      <c r="L10" s="100">
         <f>'[2]EB1'!L21</f>
         <v>0</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="100">
         <f>'[2]EB1'!M21</f>
         <v>0</v>
       </c>
-      <c r="N10" s="101">
+      <c r="N10" s="100">
         <f>'[2]EB1'!N21</f>
         <v>0</v>
       </c>
-      <c r="O10" s="101">
+      <c r="O10" s="100">
         <f>'[2]EB1'!O21</f>
         <v>0</v>
       </c>
-      <c r="P10" s="101">
+      <c r="P10" s="100">
         <f>'[2]EB1'!P21</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="101">
+      <c r="Q10" s="100">
         <f>'[2]EB1'!Q21</f>
         <v>0</v>
       </c>
-      <c r="R10" s="101">
+      <c r="R10" s="100">
         <f>'[2]EB1'!R21</f>
         <v>0</v>
       </c>
-      <c r="S10" s="101">
+      <c r="S10" s="100">
         <f>'[2]EB1'!S21</f>
         <v>0</v>
       </c>
-      <c r="T10" s="101">
+      <c r="T10" s="100">
         <f>'[2]EB1'!T21</f>
         <v>313.519</v>
       </c>
-      <c r="U10" s="101">
+      <c r="U10" s="100">
         <f>'[2]EB1'!U21</f>
         <v>325</v>
       </c>
-      <c r="V10" s="127">
+      <c r="V10" s="126">
         <f t="shared" si="0"/>
         <v>1411.51915</v>
       </c>
-      <c r="AC10" s="95" t="s">
+      <c r="AC10" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="AD10" s="144" t="s">
+      <c r="AD10" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" s="145">
+      <c r="AE10" s="144">
         <v>1</v>
       </c>
-      <c r="AF10" s="146">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="146">
+      <c r="AF10" s="145">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="145">
         <v>0.3</v>
       </c>
-      <c r="AH10" s="146">
+      <c r="AH10" s="145">
         <v>0.3</v>
       </c>
-      <c r="AI10" s="146">
+      <c r="AI10" s="145">
         <v>0.3</v>
       </c>
-      <c r="AJ10" s="146">
+      <c r="AJ10" s="145">
         <v>0.3</v>
       </c>
-      <c r="AK10" s="146">
+      <c r="AK10" s="145">
         <v>0.3</v>
       </c>
-      <c r="AL10" s="146">
+      <c r="AL10" s="145">
         <v>0.3</v>
       </c>
-      <c r="AM10" s="146">
+      <c r="AM10" s="145">
         <v>0.3</v>
       </c>
-      <c r="AN10" s="146">
+      <c r="AN10" s="145">
         <v>0.3</v>
       </c>
-      <c r="AO10" s="146">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="146">
+      <c r="AO10" s="145">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="145">
         <v>1</v>
       </c>
-      <c r="AQ10" s="146">
+      <c r="AQ10" s="145">
         <v>0.5</v>
       </c>
-      <c r="AR10" s="146">
+      <c r="AR10" s="145">
         <v>0.5</v>
       </c>
-      <c r="AS10" s="153">
+      <c r="AS10" s="152">
         <v>0.44</v>
       </c>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="1"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="96">
         <f>'[2]EB1'!D22</f>
         <v>34.09445</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="96">
         <f>'[2]EB1'!E22</f>
         <v>253.5292</v>
       </c>
-      <c r="F11" s="97">
+      <c r="F11" s="96">
         <f>'[2]EB1'!F22</f>
         <v>0</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="96">
         <f>'[2]EB1'!G22</f>
         <v>76.465</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="96">
         <f>'[2]EB1'!H22</f>
         <v>4.7945</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="96">
         <f>'[2]EB1'!I22</f>
         <v>199.8735</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="96">
         <f>'[2]EB1'!J22</f>
         <v>3.146</v>
       </c>
-      <c r="K11" s="97">
+      <c r="K11" s="96">
         <f>'[2]EB1'!K22</f>
         <v>899.206</v>
       </c>
-      <c r="L11" s="97">
+      <c r="L11" s="96">
         <f>'[2]EB1'!L22</f>
         <v>52.04</v>
       </c>
-      <c r="M11" s="97">
+      <c r="M11" s="96">
         <f>'[2]EB1'!M22</f>
         <v>800.729</v>
       </c>
-      <c r="N11" s="124">
+      <c r="N11" s="123">
         <f>'[2]EB1'!N22</f>
         <v>0</v>
       </c>
-      <c r="O11" s="97">
+      <c r="O11" s="96">
         <f>'[2]EB1'!O22</f>
         <v>0</v>
       </c>
-      <c r="P11" s="97">
+      <c r="P11" s="96">
         <f>'[2]EB1'!P22</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="97">
+      <c r="Q11" s="96">
         <f>'[2]EB1'!Q22</f>
         <v>0</v>
       </c>
-      <c r="R11" s="97">
+      <c r="R11" s="96">
         <f>'[2]EB1'!R22</f>
         <v>0</v>
       </c>
-      <c r="S11" s="97">
+      <c r="S11" s="96">
         <f>'[2]EB1'!S22</f>
         <v>0</v>
       </c>
-      <c r="T11" s="97">
+      <c r="T11" s="96">
         <f>'[2]EB1'!T22</f>
         <v>0</v>
       </c>
-      <c r="U11" s="97">
+      <c r="U11" s="96">
         <f>'[2]EB1'!U22</f>
         <v>0</v>
       </c>
-      <c r="V11" s="126">
+      <c r="V11" s="125">
         <f t="shared" si="0"/>
         <v>2323.87765</v>
       </c>
-      <c r="AC11" s="95" t="s">
+      <c r="AC11" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="AD11" s="139" t="s">
+      <c r="AD11" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="AE11" s="140">
+      <c r="AE11" s="139">
         <v>1</v>
       </c>
-      <c r="AF11" s="141">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="141">
+      <c r="AF11" s="140">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="140">
         <v>0.3</v>
       </c>
-      <c r="AH11" s="141">
+      <c r="AH11" s="140">
         <v>0.3</v>
       </c>
-      <c r="AI11" s="141">
+      <c r="AI11" s="140">
         <v>0.3</v>
       </c>
-      <c r="AJ11" s="141">
+      <c r="AJ11" s="140">
         <v>0.3</v>
       </c>
-      <c r="AK11" s="141">
+      <c r="AK11" s="140">
         <v>0.3</v>
       </c>
-      <c r="AL11" s="141">
+      <c r="AL11" s="140">
         <v>0.3</v>
       </c>
-      <c r="AM11" s="141">
+      <c r="AM11" s="140">
         <v>0.3</v>
       </c>
-      <c r="AN11" s="141">
+      <c r="AN11" s="140">
         <v>0.3</v>
       </c>
-      <c r="AO11" s="141">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="141">
+      <c r="AO11" s="140">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="140">
         <v>1</v>
       </c>
-      <c r="AQ11" s="141">
+      <c r="AQ11" s="140">
         <v>0.5</v>
       </c>
-      <c r="AR11" s="141">
+      <c r="AR11" s="140">
         <v>0.5</v>
       </c>
-      <c r="AS11" s="151">
+      <c r="AS11" s="150">
         <v>0.44</v>
       </c>
     </row>
     <row r="12" spans="1:45">
       <c r="A12" s="1"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="96">
         <f>'[2]EB1'!D23</f>
         <v>0</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="96">
         <f>'[2]EB1'!E23</f>
         <v>0</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="96">
         <f>'[2]EB1'!F23</f>
         <v>0</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="96">
         <f>'[2]EB1'!G23</f>
         <v>146.906</v>
       </c>
-      <c r="H12" s="97">
+      <c r="H12" s="96">
         <f>'[2]EB1'!H23</f>
         <v>0</v>
       </c>
-      <c r="I12" s="97">
+      <c r="I12" s="96">
         <f>'[2]EB1'!I23</f>
         <v>0</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="96">
         <f>'[2]EB1'!J23</f>
         <v>0</v>
       </c>
-      <c r="K12" s="97">
+      <c r="K12" s="96">
         <f>'[2]EB1'!K23</f>
         <v>0</v>
       </c>
-      <c r="L12" s="97">
+      <c r="L12" s="96">
         <f>'[2]EB1'!L23</f>
         <v>902.14</v>
       </c>
-      <c r="M12" s="97">
+      <c r="M12" s="96">
         <f>'[2]EB1'!M23</f>
         <v>6.5</v>
       </c>
-      <c r="N12" s="124">
+      <c r="N12" s="123">
         <f>'[2]EB1'!N23</f>
         <v>0</v>
       </c>
-      <c r="O12" s="101">
+      <c r="O12" s="100">
         <f>'[2]EB1'!O23</f>
         <v>0</v>
       </c>
-      <c r="P12" s="101">
+      <c r="P12" s="100">
         <f>'[2]EB1'!P23</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="101">
+      <c r="Q12" s="100">
         <f>'[2]EB1'!Q23</f>
         <v>0</v>
       </c>
-      <c r="R12" s="101">
+      <c r="R12" s="100">
         <f>'[2]EB1'!R23</f>
         <v>0</v>
       </c>
-      <c r="S12" s="97">
+      <c r="S12" s="96">
         <f>'[2]EB1'!S23</f>
         <v>0</v>
       </c>
-      <c r="T12" s="97">
+      <c r="T12" s="96">
         <f>'[2]EB1'!T23</f>
         <v>0</v>
       </c>
-      <c r="U12" s="97">
+      <c r="U12" s="96">
         <f>'[2]EB1'!U23</f>
         <v>0</v>
       </c>
-      <c r="V12" s="126">
+      <c r="V12" s="125">
         <f t="shared" si="0"/>
         <v>1055.546</v>
       </c>
-      <c r="AC12" s="95" t="s">
+      <c r="AC12" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="AD12" s="139" t="s">
+      <c r="AD12" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="AE12" s="140">
+      <c r="AE12" s="139">
         <v>1</v>
       </c>
-      <c r="AF12" s="141">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="141">
+      <c r="AF12" s="140">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="140">
         <v>0.3</v>
       </c>
-      <c r="AH12" s="141">
+      <c r="AH12" s="140">
         <v>0.3</v>
       </c>
-      <c r="AI12" s="141">
+      <c r="AI12" s="140">
         <v>0.3</v>
       </c>
-      <c r="AJ12" s="141">
+      <c r="AJ12" s="140">
         <v>0.3</v>
       </c>
-      <c r="AK12" s="141">
+      <c r="AK12" s="140">
         <v>0.3</v>
       </c>
-      <c r="AL12" s="141">
+      <c r="AL12" s="140">
         <v>0.3</v>
       </c>
-      <c r="AM12" s="141">
+      <c r="AM12" s="140">
         <v>0.3</v>
       </c>
-      <c r="AN12" s="141">
+      <c r="AN12" s="140">
         <v>0.3</v>
       </c>
-      <c r="AO12" s="141">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="141">
+      <c r="AO12" s="140">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="140">
         <v>1</v>
       </c>
-      <c r="AQ12" s="141">
+      <c r="AQ12" s="140">
         <v>0.5</v>
       </c>
-      <c r="AR12" s="141">
+      <c r="AR12" s="140">
         <v>0.5</v>
       </c>
-      <c r="AS12" s="151">
+      <c r="AS12" s="150">
         <v>0.44</v>
       </c>
     </row>
     <row r="13" ht="14.4" spans="1:45">
       <c r="A13" s="1"/>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="103">
         <f t="shared" ref="D13:V13" si="1">SUM(D5:D12)</f>
         <v>2337.9239</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="103">
         <f t="shared" si="1"/>
         <v>4881.9848</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104">
+      <c r="F13" s="103"/>
+      <c r="G13" s="103">
         <f t="shared" si="1"/>
         <v>5975.8215</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="103">
         <f t="shared" si="1"/>
         <v>1163.9025</v>
       </c>
-      <c r="I13" s="104">
+      <c r="I13" s="103">
         <f t="shared" si="1"/>
         <v>675.023</v>
       </c>
-      <c r="J13" s="104">
+      <c r="J13" s="103">
         <f t="shared" si="1"/>
         <v>2415.732</v>
       </c>
-      <c r="K13" s="104">
+      <c r="K13" s="103">
         <f t="shared" si="1"/>
         <v>943.272</v>
       </c>
-      <c r="L13" s="104">
+      <c r="L13" s="103">
         <f t="shared" si="1"/>
         <v>1321.9105</v>
       </c>
-      <c r="M13" s="104">
+      <c r="M13" s="103">
         <f t="shared" si="1"/>
         <v>999.964</v>
       </c>
-      <c r="N13" s="104">
+      <c r="N13" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="104">
+      <c r="O13" s="103">
         <f t="shared" si="1"/>
         <v>1643.763</v>
       </c>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104">
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103">
         <f t="shared" si="1"/>
         <v>59.205</v>
       </c>
-      <c r="T13" s="104">
+      <c r="T13" s="103">
         <f t="shared" si="1"/>
         <v>1198.163</v>
       </c>
-      <c r="U13" s="104">
+      <c r="U13" s="103">
         <f t="shared" si="1"/>
         <v>5211.4675</v>
       </c>
-      <c r="V13" s="128">
+      <c r="V13" s="127">
         <f t="shared" si="1"/>
         <v>28885.6327</v>
       </c>
-      <c r="AC13" s="95" t="s">
+      <c r="AC13" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="147"/>
-      <c r="AF13" s="148"/>
-      <c r="AG13" s="148"/>
-      <c r="AH13" s="148"/>
-      <c r="AI13" s="148"/>
-      <c r="AJ13" s="148"/>
-      <c r="AK13" s="148"/>
-      <c r="AL13" s="148"/>
-      <c r="AM13" s="148"/>
-      <c r="AN13" s="148"/>
-      <c r="AO13" s="148"/>
-      <c r="AP13" s="148"/>
-      <c r="AQ13" s="148"/>
-      <c r="AR13" s="148"/>
-      <c r="AS13" s="154"/>
+      <c r="AD13" s="146"/>
+      <c r="AE13" s="146"/>
+      <c r="AF13" s="147"/>
+      <c r="AG13" s="147"/>
+      <c r="AH13" s="147"/>
+      <c r="AI13" s="147"/>
+      <c r="AJ13" s="147"/>
+      <c r="AK13" s="147"/>
+      <c r="AL13" s="147"/>
+      <c r="AM13" s="147"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="147"/>
+      <c r="AP13" s="147"/>
+      <c r="AQ13" s="147"/>
+      <c r="AR13" s="147"/>
+      <c r="AS13" s="153"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
@@ -6480,11 +6479,11 @@
     </row>
     <row r="16" ht="14.4" spans="1:13">
       <c r="A16" s="1"/>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
@@ -6509,189 +6508,189 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="105"/>
+      <c r="D18" s="104"/>
     </row>
     <row r="19" ht="39.6" spans="1:22">
       <c r="A19" s="1"/>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="109" t="s">
+      <c r="E19" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="109" t="s">
+      <c r="F19" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="109" t="s">
+      <c r="G19" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="109" t="s">
+      <c r="H19" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="109" t="s">
+      <c r="I19" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="109" t="s">
+      <c r="J19" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="109" t="s">
+      <c r="K19" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="109" t="s">
+      <c r="L19" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="109" t="s">
+      <c r="M19" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="109" t="s">
+      <c r="N19" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="109" t="s">
+      <c r="O19" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="109" t="s">
+      <c r="P19" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="109" t="s">
+      <c r="Q19" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="R19" s="109" t="s">
+      <c r="R19" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="109" t="s">
+      <c r="S19" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="T19" s="109" t="s">
+      <c r="T19" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="129" t="s">
+      <c r="U19" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="V19" s="91" t="s">
+      <c r="V19" s="90" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" ht="14.4" spans="1:24">
       <c r="A20" s="1"/>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="112">
+      <c r="D20" s="111">
         <v>1</v>
       </c>
-      <c r="E20" s="113">
-        <v>0</v>
-      </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="113">
+      <c r="E20" s="112">
+        <v>0</v>
+      </c>
+      <c r="F20" s="110"/>
+      <c r="G20" s="112">
         <v>0.9</v>
       </c>
-      <c r="H20" s="113">
+      <c r="H20" s="112">
         <v>0.1</v>
       </c>
-      <c r="I20" s="113">
+      <c r="I20" s="112">
         <v>0.2</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="112">
         <v>0.05</v>
       </c>
-      <c r="K20" s="113">
+      <c r="K20" s="112">
         <v>0.15</v>
       </c>
-      <c r="L20" s="113">
+      <c r="L20" s="112">
         <v>0.65</v>
       </c>
-      <c r="M20" s="113">
+      <c r="M20" s="112">
         <v>0.3</v>
       </c>
-      <c r="N20" s="111"/>
-      <c r="O20" s="113">
+      <c r="N20" s="110"/>
+      <c r="O20" s="112">
         <v>0.25</v>
       </c>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="113">
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="112">
         <v>0.5</v>
       </c>
-      <c r="V20" s="130"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="132" t="s">
+      <c r="V20" s="129"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="131" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" ht="14.4" spans="1:24">
       <c r="A21" s="1"/>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="114">
+      <c r="D21" s="113">
         <f t="shared" ref="D21:M21" si="2">1-D20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="114">
+      <c r="E21" s="113">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="114">
+      <c r="F21" s="110"/>
+      <c r="G21" s="113">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="H21" s="114">
+      <c r="H21" s="113">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="I21" s="114">
+      <c r="I21" s="113">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J21" s="114">
+      <c r="J21" s="113">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
-      <c r="K21" s="114">
+      <c r="K21" s="113">
         <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
-      <c r="L21" s="114">
+      <c r="L21" s="113">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="M21" s="114">
+      <c r="M21" s="113">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="N21" s="111"/>
-      <c r="O21" s="114">
+      <c r="N21" s="110"/>
+      <c r="O21" s="113">
         <f>1-O20</f>
         <v>0.75</v>
       </c>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="114">
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="113">
         <f>1-U20</f>
         <v>0.5</v>
       </c>
-      <c r="V21" s="130"/>
-      <c r="X21" s="132" t="s">
+      <c r="V21" s="129"/>
+      <c r="X21" s="131" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6701,43 +6700,43 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1"/>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="117" t="s">
+      <c r="E23" s="116" t="s">
         <v>76</v>
       </c>
       <c r="V23" s="25"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1"/>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="120" t="s">
+      <c r="E24" s="119" t="s">
         <v>76</v>
       </c>
       <c r="V24" s="25"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="121">
+      <c r="C25" s="120">
         <v>1</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6764,27 +6763,27 @@
   </cols>
   <sheetData>
     <row r="2" ht="17.4" spans="2:2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="5:10">
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="5:10">
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6844,7 +6843,7 @@
       <c r="G1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="67"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" ht="15.6" spans="2:18">
       <c r="B2" s="18" t="str">
@@ -6869,79 +6868,79 @@
       <c r="G2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="J2" s="52" t="s">
+      <c r="H2" s="38"/>
+      <c r="J2" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
     </row>
     <row r="3" spans="10:18">
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="21.15" spans="2:18">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="J4" s="55" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="J4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="54" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6949,151 +6948,151 @@
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
-      <c r="J5" s="57" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="J5" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57" t="str">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56" t="str">
         <f>$B$2&amp;'EB1'!$D$2</f>
         <v>INDCOA</v>
       </c>
-      <c r="M5" s="77" t="str">
+      <c r="M5" s="76" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$D$3</f>
         <v>Industry Solid Fuels</v>
       </c>
-      <c r="N5" s="57" t="str">
+      <c r="N5" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57" t="str">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56" t="str">
         <f>$B$2&amp;'EB1'!$E$2</f>
         <v>INDGAS</v>
       </c>
-      <c r="M6" s="77" t="str">
+      <c r="M6" s="76" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$E$3</f>
         <v>Industry Natural Gas</v>
       </c>
-      <c r="N6" s="57" t="str">
+      <c r="N6" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57" t="str">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56" t="str">
         <f>$B$2&amp;'EB1'!$F$2</f>
         <v>INDOIL</v>
       </c>
-      <c r="M7" s="77" t="str">
+      <c r="M7" s="76" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$F$3</f>
         <v>Industry Crude oil</v>
       </c>
-      <c r="N7" s="57" t="str">
+      <c r="N7" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57" t="str">
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56" t="str">
         <f>$B$2&amp;'EB1'!$O$2</f>
         <v>INDBIO</v>
       </c>
-      <c r="M8" s="77" t="str">
+      <c r="M8" s="76" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$O$3</f>
         <v>Industry Biomass</v>
       </c>
-      <c r="N8" s="57" t="str">
+      <c r="N8" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57" t="str">
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56" t="str">
         <f>$B$2&amp;'EB1'!$U$2</f>
         <v>INDELC</v>
       </c>
-      <c r="M9" s="77" t="str">
+      <c r="M9" s="76" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$U$3</f>
         <v>Industry Electricity</v>
       </c>
-      <c r="N9" s="57" t="str">
+      <c r="N9" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="66"/>
+      <c r="M10" s="65"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -7104,78 +7103,78 @@
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="12" spans="4:18">
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="J12" s="52" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="J12" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="Q13" s="53" t="s">
+      <c r="Q13" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="53" t="s">
+      <c r="R13" s="52" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7201,31 +7200,31 @@
       <c r="H14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="55" t="s">
+      <c r="L14" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="55" t="s">
+      <c r="M14" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="55" t="s">
+      <c r="N14" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="O14" s="55" t="s">
+      <c r="O14" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="Q14" s="55" t="s">
+      <c r="Q14" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="R14" s="55" t="s">
+      <c r="R14" s="54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7244,17 +7243,17 @@
       <c r="H15" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" t="str">
@@ -7269,37 +7268,37 @@
         <f>L5</f>
         <v>INDCOA</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="72">
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="71">
         <v>1</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="72">
         <v>50</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57" t="str">
+      <c r="K16" s="56"/>
+      <c r="L16" s="56" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L5</f>
         <v>FTE-INDCOA</v>
       </c>
-      <c r="M16" s="77" t="str">
+      <c r="M16" s="76" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M5</f>
         <v>Sector Fuel Technology Existing Industry Solid Fuels</v>
       </c>
-      <c r="N16" s="57" t="str">
+      <c r="N16" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O16" s="57" t="str">
+      <c r="O16" s="56" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" t="str">
@@ -7314,35 +7313,35 @@
         <f>L6</f>
         <v>INDGAS</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="72">
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="71">
         <v>1</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="72">
         <v>50</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57" t="str">
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L6</f>
         <v>FTE-INDGAS</v>
       </c>
-      <c r="M17" s="77" t="str">
+      <c r="M17" s="76" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M6</f>
         <v>Sector Fuel Technology Existing Industry Natural Gas</v>
       </c>
-      <c r="N17" s="57" t="str">
+      <c r="N17" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O17" s="57" t="str">
+      <c r="O17" s="56" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" t="str">
@@ -7357,125 +7356,125 @@
         <f>L7</f>
         <v>INDOIL</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="73">
         <f>-'EB1'!G$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.296467316185648</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="72">
+      <c r="F18" s="67"/>
+      <c r="G18" s="71">
         <v>1</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="72">
         <v>50</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57" t="str">
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L7</f>
         <v>FTE-INDOIL</v>
       </c>
-      <c r="M18" s="77" t="str">
+      <c r="M18" s="76" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M7</f>
         <v>Sector Fuel Technology Existing Industry Crude oil</v>
       </c>
-      <c r="N18" s="57" t="str">
+      <c r="N18" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O18" s="57" t="str">
+      <c r="O18" s="56" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" spans="3:18">
       <c r="C19" t="str">
         <f>'EB1'!H$2</f>
         <v>KER</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="73">
         <f>-'EB1'!H$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.0360871634555495</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57" t="str">
+      <c r="F19" s="67"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L8</f>
         <v>FTE-INDBIO</v>
       </c>
-      <c r="M19" s="77" t="str">
+      <c r="M19" s="76" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M8</f>
         <v>Sector Fuel Technology Existing Industry Biomass</v>
       </c>
-      <c r="N19" s="57" t="str">
+      <c r="N19" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O19" s="57" t="str">
+      <c r="O19" s="56" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
     </row>
     <row r="20" spans="3:18">
       <c r="C20" t="str">
         <f>'EB1'!I$2</f>
         <v>LPG</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="73">
         <f>-'EB1'!I$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.14191233727078</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57" t="str">
+      <c r="F20" s="67"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56" t="str">
         <f>"FT"&amp;$G$2&amp;"-"&amp;L9</f>
         <v>FTE-INDELC</v>
       </c>
-      <c r="M20" s="77" t="str">
+      <c r="M20" s="76" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M9</f>
         <v>Sector Fuel Technology Existing Industry Electricity</v>
       </c>
-      <c r="N20" s="57" t="str">
+      <c r="N20" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O20" s="57" t="str">
+      <c r="O20" s="56" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P20" s="57" t="s">
+      <c r="P20" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" t="str">
         <f>'EB1'!J$2</f>
         <v>GSL</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="73">
         <f>-'EB1'!J$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.00770846785020003</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="73"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="66"/>
+      <c r="M21" s="65"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -7487,17 +7486,17 @@
         <f>'EB1'!K$2</f>
         <v>NAP</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="73">
         <f>-'EB1'!K$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.0437395498695486</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="73"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="66"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -7509,17 +7508,17 @@
         <f>'EB1'!L$2</f>
         <v>HFO</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="73">
         <f>-'EB1'!L$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.28393137815911</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="73"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="82"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="66"/>
+      <c r="M23" s="65"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -7531,17 +7530,17 @@
         <f>'EB1'!M$2</f>
         <v>OPP</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="73">
         <f>-'EB1'!M$7/-SUM('EB1'!$G$7:$M$7)</f>
         <v>0.190153787209164</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="73"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="66"/>
+      <c r="M24" s="65"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="6"/>
@@ -7561,12 +7560,12 @@
         <f>L8</f>
         <v>INDBIO</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="72">
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="71">
         <v>1</v>
       </c>
-      <c r="H25" s="73">
+      <c r="H25" s="72">
         <v>50</v>
       </c>
     </row>
@@ -7583,12 +7582,12 @@
         <f>L9</f>
         <v>INDELC</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="72">
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="71">
         <v>1</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="72">
         <v>50</v>
       </c>
     </row>
@@ -7597,36 +7596,36 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="75"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="75"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="75"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="75"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="15"/>
@@ -7654,8 +7653,8 @@
   <sheetPr/>
   <dimension ref="B1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -7716,7 +7715,7 @@
         <f>'EB1'!C7</f>
         <v>Industry</v>
       </c>
-      <c r="D2" s="38" t="str">
+      <c r="D2" s="37" t="str">
         <f>"Demand Technologies"</f>
         <v>Demand Technologies</v>
       </c>
@@ -7733,239 +7732,239 @@
         <v>88</v>
       </c>
       <c r="J2" s="18"/>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
     </row>
     <row r="3" spans="15:23">
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="U3" s="53" t="s">
+      <c r="U3" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="21.15" spans="2:23">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="O4" s="55" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="O4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="54" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.6" spans="2:23">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="O5" s="56" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="O5" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="56" t="str">
+      <c r="P5" s="56"/>
+      <c r="Q5" s="55" t="str">
         <f>LEFT($O$5,1)&amp;LEFT(B2,1)&amp;'EB1'!$C$20</f>
         <v>DIDM1</v>
       </c>
-      <c r="R5" s="56" t="str">
+      <c r="R5" s="55" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp;" Sector - "&amp;'EB1'!$X$20</f>
         <v>Demand Industry Sector - Demand 1</v>
       </c>
-      <c r="S5" s="56" t="str">
+      <c r="S5" s="55" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.6" spans="2:23">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="56" t="str">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="55" t="str">
         <f>LEFT($O$5,1)&amp;LEFT(B2,1)&amp;'EB1'!$C$21</f>
         <v>DIDM2</v>
       </c>
-      <c r="R6" s="56" t="str">
+      <c r="R6" s="55" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp;" Sector - "&amp;'EB1'!$X$21</f>
         <v>Demand Industry Sector - Demand 2</v>
       </c>
-      <c r="S6" s="56" t="str">
+      <c r="S6" s="55" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="15:23">
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58" t="str">
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57" t="str">
         <f>$B$2&amp;'EB1'!$C$23</f>
         <v>INDCO2</v>
       </c>
-      <c r="R7" s="58" t="str">
+      <c r="R7" s="57" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$C$24</f>
         <v>Industry Carbon dioxide</v>
       </c>
-      <c r="S7" s="58" t="str">
+      <c r="S7" s="57" t="str">
         <f>'EB1'!$AA$2</f>
         <v>kt</v>
       </c>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
     </row>
     <row r="8" ht="14.4" spans="7:7">
-      <c r="G8" s="40"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" ht="14.4" spans="4:23">
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="59"/>
-      <c r="O9" s="52" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="58"/>
+      <c r="O9" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="K10" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="P10" s="54" t="s">
+      <c r="P10" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="53" t="s">
+      <c r="Q10" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="R10" s="53" t="s">
+      <c r="R10" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="S10" s="53" t="s">
+      <c r="S10" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="T10" s="53" t="s">
+      <c r="T10" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="U10" s="53" t="s">
+      <c r="U10" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="V10" s="53" t="s">
+      <c r="V10" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="W10" s="53" t="s">
+      <c r="W10" s="52" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7985,43 +7984,43 @@
       <c r="F11" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="46" t="s">
         <v>155</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="60" t="s">
+      <c r="K11" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="O11" s="55" t="s">
+      <c r="O11" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="55" t="s">
+      <c r="R11" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="S11" s="55" t="s">
+      <c r="S11" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="T11" s="55" t="s">
+      <c r="T11" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="U11" s="55" t="s">
+      <c r="U11" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="V11" s="55" t="s">
+      <c r="V11" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="W11" s="55" t="s">
+      <c r="W11" s="54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8036,25 +8035,25 @@
         <v>PJa</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="48" t="s">
         <v>157</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="O12" s="55" t="s">
+      <c r="K12" s="48"/>
+      <c r="O12" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" spans="2:23">
       <c r="B13" t="str">
@@ -8069,7 +8068,7 @@
         <f>$Q$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="49">
         <f>'EB1'!D$7*'EB1'!D$20/($G13*$H13)*1.01</f>
         <v>1310.91716736842</v>
       </c>
@@ -8085,44 +8084,40 @@
       <c r="I13" s="15">
         <v>30</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="60">
         <f>E13*G13*H13</f>
         <v>1245.371309</v>
       </c>
-      <c r="O13" s="56" t="s">
+      <c r="O13" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57" t="str">
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56" t="str">
         <f>LEFT($B$2)&amp;'EB1'!$C$20&amp;$I$2&amp;'EB1'!V2</f>
         <v>IDM1ETOT</v>
       </c>
-      <c r="R13" s="65" t="str">
+      <c r="R13" s="64" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp;" Sector - "&amp;""&amp;$I$1&amp;" "&amp;'EB1'!$X$20&amp;" - "&amp;'EB1'!$V$3</f>
         <v>Demand Technologies Industry Sector - Existing Demand 1 - Total</v>
       </c>
-      <c r="S13" s="57" t="str">
+      <c r="S13" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="T13" s="57" t="str">
+      <c r="T13" s="56" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" t="str">
         <f>Sector_Fuels!L6</f>
         <v>INDGAS</v>
       </c>
-      <c r="D14" t="str">
-        <f>$Q$5</f>
-        <v>DIDM1</v>
-      </c>
-      <c r="E14" s="50">
+      <c r="E14" s="49">
         <f>'EB1'!E$7*'EB1'!E$20/($G14*$H14)*1.01</f>
         <v>0</v>
       </c>
@@ -8138,25 +8133,25 @@
       <c r="I14" s="15">
         <v>30</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="60">
         <f t="shared" ref="K14:K22" si="0">E14*G14*H14</f>
         <v>0</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="57" t="str">
+      <c r="Q14" s="56" t="str">
         <f>LEFT($B$2)&amp;'EB1'!$C$21&amp;$I$2&amp;'EB1'!V2</f>
         <v>IDM2ETOT</v>
       </c>
-      <c r="R14" s="66" t="str">
+      <c r="R14" s="65" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp;" Sector - "&amp;""&amp;$I$1&amp;" "&amp;'EB1'!$X$21&amp;" - "&amp;'EB1'!$V$3</f>
         <v>Demand Technologies Industry Sector - Existing Demand 2 - Total</v>
       </c>
-      <c r="S14" s="57" t="str">
+      <c r="S14" s="56" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="T14" s="57" t="str">
+      <c r="T14" s="56" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
@@ -8170,11 +8165,7 @@
         <f>Sector_Fuels!L7</f>
         <v>INDOIL</v>
       </c>
-      <c r="D15" t="str">
-        <f>$Q$5</f>
-        <v>DIDM1</v>
-      </c>
-      <c r="E15" s="50">
+      <c r="E15" s="49">
         <f>SUM('EB1'!G$7*'EB1'!G$20,'EB1'!H$7*'EB1'!H$20,'EB1'!I$7*'EB1'!I$20,'EB1'!J$7*'EB1'!J$20,'EB1'!K$7*'EB1'!K$20,'EB1'!L$7*'EB1'!L$20,'EB1'!M$7*'EB1'!M$20)/($G15*$H15)*1.01</f>
         <v>586.272972368421</v>
       </c>
@@ -8190,14 +8181,14 @@
       <c r="I15" s="15">
         <v>30</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15" s="60">
         <f t="shared" si="0"/>
         <v>556.95932375</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="66"/>
+      <c r="R15" s="65"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -8210,11 +8201,7 @@
         <f>Sector_Fuels!L8</f>
         <v>INDBIO</v>
       </c>
-      <c r="D16" t="str">
-        <f>$Q$5</f>
-        <v>DIDM1</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <f>'EB1'!O$7*'EB1'!O$20/($G16*$H16)*1.01</f>
         <v>143.859416447368</v>
       </c>
@@ -8230,14 +8217,14 @@
       <c r="I16" s="15">
         <v>30</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="60">
         <f t="shared" si="0"/>
         <v>136.666445625</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="66"/>
+      <c r="R16" s="65"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -8249,11 +8236,7 @@
         <f>Sector_Fuels!L9</f>
         <v>INDELC</v>
       </c>
-      <c r="D17" t="str">
-        <f>$Q$5</f>
-        <v>DIDM1</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="E17" s="49">
         <f>'EB1'!U$7*'EB1'!U$20/($G17*$H17)*1.01</f>
         <v>1086.66537894737</v>
       </c>
@@ -8269,7 +8252,7 @@
       <c r="I17" s="15">
         <v>30</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="60">
         <f t="shared" si="0"/>
         <v>1032.33211</v>
       </c>
@@ -8310,7 +8293,7 @@
       <c r="I18" s="15">
         <v>30</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8328,10 +8311,8 @@
       <c r="C19" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="50">
+      <c r="D19" s="1"/>
+      <c r="E19" s="49">
         <f>'EB1'!E$7*'EB1'!E$21/($G14*$H14)*1.01</f>
         <v>1886.96109894737</v>
       </c>
@@ -8347,7 +8328,7 @@
       <c r="I19" s="15">
         <v>30</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="60">
         <f t="shared" si="0"/>
         <v>1792.613044</v>
       </c>
@@ -8365,10 +8346,8 @@
       <c r="C20" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="50">
+      <c r="D20" s="1"/>
+      <c r="E20" s="49">
         <f>SUM('EB1'!G$7*'EB1'!G$21,'EB1'!H$7*'EB1'!H$21,'EB1'!I$7*'EB1'!I$21,'EB1'!J$7*'EB1'!J$21,'EB1'!K$7*'EB1'!K$21,'EB1'!L$7*'EB1'!L$21,'EB1'!M$7*'EB1'!M$21)/($G15*$H15)*1.01</f>
         <v>484.819801315789</v>
       </c>
@@ -8384,7 +8363,7 @@
       <c r="I20" s="15">
         <v>30</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="60">
         <f t="shared" si="0"/>
         <v>460.57881125</v>
       </c>
@@ -8402,10 +8381,8 @@
       <c r="C21" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="50">
+      <c r="D21" s="1"/>
+      <c r="E21" s="49">
         <f>'EB1'!O$7*'EB1'!O$21/($G16*$H16)*1.01</f>
         <v>431.578249342105</v>
       </c>
@@ -8421,7 +8398,7 @@
       <c r="I21" s="15">
         <v>30</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="60">
         <f t="shared" si="0"/>
         <v>409.999336875</v>
       </c>
@@ -8439,10 +8416,8 @@
       <c r="C22" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="50">
+      <c r="D22" s="1"/>
+      <c r="E22" s="49">
         <f>'EB1'!U$7*'EB1'!U$21/($G17*$H17)*1.01</f>
         <v>1086.66537894737</v>
       </c>
@@ -8458,7 +8433,7 @@
       <c r="I22" s="15">
         <v>30</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="60">
         <f t="shared" si="0"/>
         <v>1032.33211</v>
       </c>
@@ -8473,10 +8448,10 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="6:23">
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -8492,22 +8467,22 @@
       <c r="C24" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="16"/>
       <c r="C25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="9:14">
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -8524,7 +8499,7 @@
     </row>
     <row r="29" spans="4:14">
       <c r="D29" s="1"/>
-      <c r="E29" s="50"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="L29" s="9"/>
@@ -8695,10 +8670,10 @@
         <f>DemTechs_IND!$Q$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>0.3</v>
       </c>
     </row>
@@ -8720,10 +8695,10 @@
         <f>DemTechs_IND!$Q$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <v>0.2</v>
       </c>
     </row>
@@ -8739,10 +8714,10 @@
         <f>DemTechs_IND!$Q$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <f>1-J9-J10-J12</f>
         <v>0.29</v>
       </c>
@@ -8758,10 +8733,10 @@
         <f>DemTechs_IND!$Q$5</f>
         <v>DIDM1</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="36">
         <v>0.21</v>
       </c>
     </row>
@@ -8773,10 +8748,10 @@
         <f>DemTechs_IND!$Q$6</f>
         <v>DIDM2</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <v>0.3</v>
       </c>
     </row>
@@ -8788,10 +8763,10 @@
         <f>DemTechs_IND!$Q$6</f>
         <v>DIDM2</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <v>0.2</v>
       </c>
     </row>
@@ -8804,10 +8779,10 @@
         <f>DemTechs_IND!$Q$6</f>
         <v>DIDM2</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <f>1-J13-J14-J16</f>
         <v>0.29</v>
       </c>
@@ -8817,14 +8792,14 @@
       <c r="G16" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="33" t="str">
+      <c r="H16" s="30" t="str">
         <f>DemTechs_IND!$Q$6</f>
         <v>DIDM2</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>0.21</v>
       </c>
     </row>
@@ -8865,7 +8840,7 @@
   </cols>
   <sheetData>
     <row r="3" ht="17.45" customHeight="1" spans="2:9">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="154" t="s">
         <v>176</v>
       </c>
       <c r="C3" s="2"/>
